--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3437046.732163674</v>
+        <v>3432714.247342981</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>118.8342074191895</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -709,10 +709,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>40.91143958001575</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>132.9971948932742</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>277.3889913079437</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>333.7356466614543</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>43.16288100277424</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>273.3148927748487</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>128.7835007017901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>114.5006452705931</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9322284908373</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
-        <v>119.8264588081767</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>126.9263824507425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>30.85302310518022</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>41.69085152457961</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>217.8886059122783</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.4736633694653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>114.5157480654945</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4774956074575129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>3.453391420151126</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>73.56194264363209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>154.0869401039776</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>984.6750962183016</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
         <v>67.86638588177355</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y2" t="n">
-        <v>1371.274936282423</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.26766826482481</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>95.26766826482481</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>95.26766826482481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>95.26766826482481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>95.26766826482481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>95.26766826482481</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>95.26766826482481</v>
+        <v>593.7883833041373</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.26766826482481</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>2066.561958331925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>2066.561958331925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>2066.561958331925</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>2697.149091018222</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V7" t="n">
-        <v>2442.464602812336</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W7" t="n">
-        <v>2442.464602812336</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>2214.475051914318</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>2214.475051914318</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>709.1532345052515</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.753074569373</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>184.0273259635867</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>184.0273259635867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2206.395003844405</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755821</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>250.5823850776717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>250.5823850776717</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5244,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>612.4182386381636</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2076.025718408601</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1786.950491752799</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1532.266003546912</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1242.848833509951</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1014.859282611934</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>794.0667034684034</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277359</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277359</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646413</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.843151638089</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611859</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683287</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,13 +6071,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687895</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
         <v>2129.438138565707</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>4288.376853076439</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>4033.692364870552</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.275194833592</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3524.185693912098</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2497.745796000626</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3200.825397924057</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>4288.376853076439</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.692364870552</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.275194833592</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.285643935575</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3382.473862754297</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3044.50749608713</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4508.114975857567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4219.039749201765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3964.355260995878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3674.938090958917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3446.9485400609</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3226.15596091737</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3343.01954787727</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3212.252935505192</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3212.252935505192</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>3445.398957336242</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>3997.308687575529</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4420.931837070597</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>559.3040775751642</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>411.3909839927711</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5010364948607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>97.30493720974067</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.70136564882</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3189.272672481338</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3020.336489553431</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2870.219850141096</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2722.306756558703</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2575.416809060792</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8464,7 +8464,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.26924431238921e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-3.020569790664198e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>31.93331737597606</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.36248435538658</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
-        <v>97.57899151911161</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>18.49466557218874</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>125.5559695740482</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>7.821049476758844</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>86.11098998262949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>102.8897022617937</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.3544845744798</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8413214260727</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>152.147712745405</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>11.43719818829126</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690344.2174915917</v>
+        <v>690344.2174915916</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778548</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778546</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778547</v>
-      </c>
       <c r="E2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26435,25 +26435,25 @@
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="I4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="I4" t="n">
-        <v>5067.592601670416</v>
-      </c>
       <c r="J4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670415</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670407</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134953.8703278307</v>
+        <v>-134953.8703278308</v>
       </c>
       <c r="C6" t="n">
-        <v>455014.0088867137</v>
+        <v>455014.0088867141</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867138</v>
+        <v>455014.0088867139</v>
       </c>
       <c r="E6" t="n">
-        <v>-324130.960462281</v>
+        <v>-324478.339716638</v>
       </c>
       <c r="F6" t="n">
-        <v>620241.817295428</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="G6" t="n">
-        <v>620241.8172954276</v>
+        <v>619894.4380410709</v>
       </c>
       <c r="H6" t="n">
-        <v>620241.8172954278</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="I6" t="n">
-        <v>620241.8172954279</v>
+        <v>619894.4380410706</v>
       </c>
       <c r="J6" t="n">
-        <v>443818.5981028349</v>
+        <v>443471.2188484779</v>
       </c>
       <c r="K6" t="n">
-        <v>620241.8172954279</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="L6" t="n">
-        <v>620241.8172954281</v>
+        <v>619894.4380410708</v>
       </c>
       <c r="M6" t="n">
-        <v>496033.3065873692</v>
+        <v>495685.9273330125</v>
       </c>
       <c r="N6" t="n">
-        <v>620241.8172954278</v>
+        <v>619894.4380410707</v>
       </c>
       <c r="O6" t="n">
-        <v>620241.8172954277</v>
+        <v>619894.4380410709</v>
       </c>
       <c r="P6" t="n">
-        <v>620241.817295428</v>
+        <v>619894.4380410709</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>246.438684351818</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>210.4649321663386</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>115.2594492617794</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>92.71246049576294</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>87.88390046306381</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>48.19472341080751</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>113.0080078390209</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>153.0681335233685</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>91.95799899615889</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>16.63754732114117</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>248.5245325067415</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>305.1876769472509</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.8560084902126</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
-        <v>353.3934907042769</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359094</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>171.7382405950817</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35418,7 +35418,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5501250924112</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>167.3462379728919</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.87423440419106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
-        <v>219.4190832899467</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>37.7638331807514</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3432714.247342981</v>
+        <v>3434474.777645767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>195.4755619138953</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.983388191319154</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>132.9971948932742</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>333.7356466614543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.28367916400425</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.2137407186092</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>56.51774738058903</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095441</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>114.5006452705931</v>
+        <v>41.16673120696654</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.85302310518022</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="23">
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5334195528337</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>95.81917536083697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>630.5276477770158</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>272.2619491702653</v>
       </c>
       <c r="E2" t="n">
         <v>74.81188663097703</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2636.076575092838</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2305.013687749267</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.245032479153</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1578.779274218073</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>593.7883833041373</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>411.9186004304258</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>74.21353655248491</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>60.29013249107582</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>671.0403504886675</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>671.0403504886675</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>450.2477713451374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4892,7 +4892,7 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5035,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5126,10 +5126,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859342</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D13" t="n">
-        <v>747.3584617859342</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,19 +5363,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5597,7 +5597,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
         <v>776.1751066403293</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>962.6357307816187</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>793.6995478537118</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>643.582908441376</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>495.6698148589829</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>348.7798673610725</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.284195611858</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5934,25 +5934,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
         <v>835.3959446011269</v>
@@ -5989,7 +5989,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,28 +6934,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7262,16 +7262,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7408,13 +7408,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7496,19 +7496,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>414.4022433768874</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>414.4022433768874</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8464,7 +8464,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.155557474667594e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.93331737597606</v>
+        <v>105.2672314396026</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>134.6711151870886</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>31.71340154579417</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>690344.2174915916</v>
+        <v>690344.2174915917</v>
       </c>
     </row>
     <row r="11">
@@ -26316,43 +26316,43 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210054</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
@@ -26438,7 +26438,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
@@ -26447,7 +26447,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670436</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
@@ -26524,46 +26524,46 @@
         <v>-134953.8703278308</v>
       </c>
       <c r="C6" t="n">
-        <v>455014.0088867141</v>
+        <v>455014.0088867138</v>
       </c>
       <c r="D6" t="n">
-        <v>455014.0088867139</v>
+        <v>455014.0088867137</v>
       </c>
       <c r="E6" t="n">
-        <v>-324478.339716638</v>
+        <v>-324165.6983877167</v>
       </c>
       <c r="F6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.0793699919</v>
       </c>
       <c r="G6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.079369992</v>
       </c>
       <c r="H6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="I6" t="n">
-        <v>619894.4380410706</v>
+        <v>620207.079369992</v>
       </c>
       <c r="J6" t="n">
-        <v>443471.2188484779</v>
+        <v>443783.8601773994</v>
       </c>
       <c r="K6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="L6" t="n">
-        <v>619894.4380410708</v>
+        <v>620207.079369992</v>
       </c>
       <c r="M6" t="n">
-        <v>495685.9273330125</v>
+        <v>495998.5686619335</v>
       </c>
       <c r="N6" t="n">
-        <v>619894.4380410707</v>
+        <v>620207.0793699923</v>
       </c>
       <c r="O6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.0793699921</v>
       </c>
       <c r="P6" t="n">
-        <v>619894.4380410709</v>
+        <v>620207.0793699923</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>186.4548081583664</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>210.4649321663386</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.71246049576294</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>48.19472341080751</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>145.647637080857</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>153.0681335233685</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>230.005250956002</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609829</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>92.49591467042819</v>
       </c>
     </row>
     <row r="11">
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,19 +31846,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,10 +33034,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,10 +36682,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37150,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
